--- a/ICD_vs_Gas_Performance.xlsx
+++ b/ICD_vs_Gas_Performance.xlsx
@@ -507,34 +507,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1741</v>
+        <v>1667</v>
       </c>
       <c r="D2" t="n">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="E2" t="n">
-        <v>39339</v>
+        <v>25992</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04238072054527751</v>
+        <v>0.06026971329404534</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04047502045448646</v>
+        <v>0.05752564217369176</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04437199810668279</v>
+        <v>0.06313591256172663</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8779626828038326</v>
+        <v>0.8406454866364095</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8628203872254075</v>
+        <v>0.8238797237297052</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8916434344072172</v>
+        <v>0.8560940074415263</v>
       </c>
     </row>
     <row r="3">
@@ -549,34 +549,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1012</v>
+        <v>830</v>
       </c>
       <c r="D3" t="n">
-        <v>971</v>
+        <v>1153</v>
       </c>
       <c r="E3" t="n">
-        <v>9737</v>
+        <v>3830</v>
       </c>
       <c r="F3" t="n">
-        <v>29602</v>
+        <v>22162</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0941482928644525</v>
+        <v>0.1781115879828326</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08877160629040569</v>
+        <v>0.1673928500551068</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09981496095198862</v>
+        <v>0.189360584535574</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5103378719112456</v>
+        <v>0.4185577407967725</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4883370676508175</v>
+        <v>0.3970227400067738</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5322987006526766</v>
+        <v>0.4404076706754557</v>
       </c>
     </row>
     <row r="4">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1482</v>
+        <v>1465</v>
       </c>
       <c r="D4" t="n">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="E4" t="n">
-        <v>16066</v>
+        <v>15441</v>
       </c>
       <c r="F4" t="n">
-        <v>23273</v>
+        <v>10551</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08445406883975382</v>
+        <v>0.08665562522181475</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08043026896876831</v>
+        <v>0.08250821170452956</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08865976444930376</v>
+        <v>0.09099084007341084</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7473524962178517</v>
+        <v>0.7387796268280383</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7277615220063114</v>
+        <v>0.7189959855424114</v>
       </c>
       <c r="L4" t="n">
-        <v>0.765986983011437</v>
+        <v>0.7576399311260981</v>
       </c>
     </row>
     <row r="5">
@@ -633,34 +633,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1596</v>
+        <v>1229</v>
       </c>
       <c r="D5" t="n">
-        <v>387</v>
+        <v>754</v>
       </c>
       <c r="E5" t="n">
-        <v>34922</v>
+        <v>17280</v>
       </c>
       <c r="F5" t="n">
-        <v>4417</v>
+        <v>8712</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04370447450572321</v>
+        <v>0.06640012966664866</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04165524624379553</v>
+        <v>0.06290242831153363</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04584969138165491</v>
+        <v>0.07007777703926173</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8048411497730711</v>
+        <v>0.6197680282400403</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7868150686899121</v>
+        <v>0.5981897532937894</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8216884405521446</v>
+        <v>0.6408831721735198</v>
       </c>
     </row>
   </sheetData>

--- a/ICD_vs_Gas_Performance.xlsx
+++ b/ICD_vs_Gas_Performance.xlsx
@@ -507,34 +507,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1667</v>
+        <v>1523</v>
       </c>
       <c r="D2" t="n">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="E2" t="n">
-        <v>25992</v>
+        <v>9786</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06026971329404534</v>
+        <v>0.1346715005747635</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05752564217369176</v>
+        <v>0.1285037521066134</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06313591256172663</v>
+        <v>0.1410873554787151</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8406454866364095</v>
+        <v>0.7680282400403429</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8238797237297052</v>
+        <v>0.7489430154271794</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8560940074415263</v>
+        <v>0.7860770261975569</v>
       </c>
     </row>
     <row r="3">
@@ -549,34 +549,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>830</v>
+        <v>971</v>
       </c>
       <c r="D3" t="n">
-        <v>1153</v>
+        <v>1012</v>
       </c>
       <c r="E3" t="n">
-        <v>3830</v>
+        <v>6299</v>
       </c>
       <c r="F3" t="n">
-        <v>22162</v>
+        <v>3487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1781115879828326</v>
+        <v>0.1335625859697387</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1673928500551068</v>
+        <v>0.1259360465649205</v>
       </c>
       <c r="I3" t="n">
-        <v>0.189360584535574</v>
+        <v>0.1415761709939392</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4185577407967725</v>
+        <v>0.4896621280887544</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3970227400067738</v>
+        <v>0.4677012993473234</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4404076706754557</v>
+        <v>0.5116629323491825</v>
       </c>
     </row>
     <row r="4">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1465</v>
+        <v>1300</v>
       </c>
       <c r="D4" t="n">
-        <v>518</v>
+        <v>683</v>
       </c>
       <c r="E4" t="n">
-        <v>15441</v>
+        <v>4944</v>
       </c>
       <c r="F4" t="n">
-        <v>10551</v>
+        <v>4842</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08665562522181475</v>
+        <v>0.2081998718770019</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08250821170452956</v>
+        <v>0.1983099660476946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09099084007341084</v>
+        <v>0.2184486018485176</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7387796268280383</v>
+        <v>0.6555723651033787</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7189959855424114</v>
+        <v>0.6343752062961309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7576399311260981</v>
+        <v>0.6761679411003531</v>
       </c>
     </row>
     <row r="5">
@@ -633,34 +633,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1229</v>
+        <v>330</v>
       </c>
       <c r="D5" t="n">
-        <v>754</v>
+        <v>1653</v>
       </c>
       <c r="E5" t="n">
-        <v>17280</v>
+        <v>1020</v>
       </c>
       <c r="F5" t="n">
-        <v>8712</v>
+        <v>8766</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06640012966664866</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06290242831153363</v>
+        <v>0.2222658923016254</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07007777703926173</v>
+        <v>0.2680732493279668</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6197680282400403</v>
+        <v>0.1664145234493192</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5981897532937894</v>
+        <v>0.1506696927182576</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6408831721735198</v>
+        <v>0.1834492959275313</v>
       </c>
     </row>
   </sheetData>

--- a/ICD_vs_Gas_Performance.xlsx
+++ b/ICD_vs_Gas_Performance.xlsx
@@ -507,34 +507,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1523</v>
+        <v>1077</v>
       </c>
       <c r="D2" t="n">
-        <v>460</v>
+        <v>906</v>
       </c>
       <c r="E2" t="n">
-        <v>9786</v>
+        <v>5169</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1346715005747635</v>
+        <v>0.1724303554274736</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1285037521066134</v>
+        <v>0.1632642094607124</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1410873554787151</v>
+        <v>0.181999182105042</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7680282400403429</v>
+        <v>0.5431164901664145</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7489430154271794</v>
+        <v>0.5211293568207866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7860770261975569</v>
+        <v>0.5649368963474446</v>
       </c>
     </row>
     <row r="3">
@@ -549,34 +549,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>971</v>
+        <v>526</v>
       </c>
       <c r="D3" t="n">
-        <v>1012</v>
+        <v>1457</v>
       </c>
       <c r="E3" t="n">
-        <v>6299</v>
+        <v>2986</v>
       </c>
       <c r="F3" t="n">
-        <v>3487</v>
+        <v>2183</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1335625859697387</v>
+        <v>0.1497722095671982</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1259360465649205</v>
+        <v>0.13835315820706</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1415761709939392</v>
+        <v>0.1619565887446273</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4896621280887544</v>
+        <v>0.2652546646495209</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4677012993473234</v>
+        <v>0.246291400556881</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5116629323491825</v>
+        <v>0.2851256655271927</v>
       </c>
     </row>
     <row r="4">
@@ -591,76 +591,76 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1300</v>
+        <v>865</v>
       </c>
       <c r="D4" t="n">
-        <v>683</v>
+        <v>1118</v>
       </c>
       <c r="E4" t="n">
-        <v>4944</v>
+        <v>2642</v>
       </c>
       <c r="F4" t="n">
-        <v>4842</v>
+        <v>2527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2081998718770019</v>
+        <v>0.2466495580268035</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1983099660476946</v>
+        <v>0.2326653313210056</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2184486018485176</v>
+        <v>0.2611882018439748</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6555723651033787</v>
+        <v>0.4362077660110943</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6343752062961309</v>
+        <v>0.4145249211005427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6761679411003531</v>
+        <v>0.4581372891242377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PCO2 OTHER threshold</t>
+          <t>PCO2 UNKNOWN threshold</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>other_hypercap_threshold</t>
+          <t>unknown_hypercap_threshold</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>330</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>1653</v>
+        <v>1914</v>
       </c>
       <c r="E5" t="n">
-        <v>1020</v>
+        <v>327</v>
       </c>
       <c r="F5" t="n">
-        <v>8766</v>
+        <v>4842</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.1742424242424243</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2222658923016254</v>
+        <v>0.1400608016450688</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2680732493279668</v>
+        <v>0.2146834493364229</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1664145234493192</v>
+        <v>0.03479576399394856</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1506696927182576</v>
+        <v>0.0275869478302369</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1834492959275313</v>
+        <v>0.04380347851252991</v>
       </c>
     </row>
   </sheetData>

--- a/ICD_vs_Gas_Performance.xlsx
+++ b/ICD_vs_Gas_Performance.xlsx
@@ -498,12 +498,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gas any</t>
+          <t>Gas 0-24h</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pco2_threshold_any</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/ICD_vs_Gas_Performance.xlsx
+++ b/ICD_vs_Gas_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,169 +498,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gas 0-24h</t>
+          <t>Gas any-time</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pco2_threshold_0_24h</t>
+          <t>pco2_threshold_any</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1077</v>
+        <v>1542</v>
       </c>
       <c r="D2" t="n">
-        <v>906</v>
+        <v>441</v>
       </c>
       <c r="E2" t="n">
-        <v>5169</v>
+        <v>9962</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1724303554274736</v>
+        <v>0.1340403337969402</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1632642094607124</v>
+        <v>0.1279366068536864</v>
       </c>
       <c r="I2" t="n">
-        <v>0.181999182105042</v>
+        <v>0.140388384402939</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5431164901664145</v>
+        <v>0.7776096822995462</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5211293568207866</v>
+        <v>0.7587796287075957</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5649368963474446</v>
+        <v>0.7953662469545256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABG threshold</t>
+          <t>Gas within 24h marker</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>abg_hypercap_threshold</t>
+          <t>pco2_threshold_0_24h</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>526</v>
+        <v>1074</v>
       </c>
       <c r="D3" t="n">
-        <v>1457</v>
+        <v>909</v>
       </c>
       <c r="E3" t="n">
-        <v>2986</v>
+        <v>5146</v>
       </c>
       <c r="F3" t="n">
-        <v>2183</v>
+        <v>4816</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1497722095671982</v>
+        <v>0.1726688102893891</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13835315820706</v>
+        <v>0.1634786738244655</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1619565887446273</v>
+        <v>0.1822630153008274</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2652546646495209</v>
+        <v>0.5416036308623298</v>
       </c>
       <c r="K3" t="n">
-        <v>0.246291400556881</v>
+        <v>0.5196137774401787</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2851256655271927</v>
+        <v>0.5634326071958339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VBG threshold</t>
+          <t>ABG threshold</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vbg_hypercap_threshold</t>
+          <t>abg_hypercap_threshold</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>865</v>
+        <v>998</v>
       </c>
       <c r="D4" t="n">
-        <v>1118</v>
+        <v>985</v>
       </c>
       <c r="E4" t="n">
-        <v>2642</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="n">
-        <v>2527</v>
+        <v>3504</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2466495580268035</v>
+        <v>0.1338519313304721</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2326653313210056</v>
+        <v>0.1263115218729677</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2611882018439748</v>
+        <v>0.1417694380053464</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4362077660110943</v>
+        <v>0.5032778618255169</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4145249211005427</v>
+        <v>0.4812864886080502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4581372891242377</v>
+        <v>0.5252565598784235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>VBG threshold</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vbg_hypercap_threshold</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D5" t="n">
+        <v>659</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5067</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4895</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2071663276482553</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1974076013157501</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.217276871457674</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6676752395360565</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6466361086950182</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6880659869592148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>PCO2 UNKNOWN threshold</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>unknown_hypercap_threshold</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>69</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1914</v>
-      </c>
-      <c r="E5" t="n">
-        <v>327</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4842</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1742424242424243</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1400608016450688</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2146834493364229</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.03479576399394856</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0275869478302369</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.04380347851252991</v>
+      <c r="C6" t="n">
+        <v>330</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1653</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8945</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.244988864142539</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2227677485926207</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2686603568197185</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1664145234493192</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1506696927182576</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1834492959275313</v>
       </c>
     </row>
   </sheetData>
